--- a/data_excel/276.xlsx
+++ b/data_excel/276.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>魚缸</t>
   </si>
@@ -78,9 +78,6 @@
     <t>放進</t>
   </si>
   <si>
-    <t>nv</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -121,23 +118,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>單位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>pv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +525,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" activeCellId="1" sqref="B14 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -533,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -542,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -562,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -582,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -593,7 +598,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -602,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,7 +618,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -622,7 +627,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -633,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -642,7 +647,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -663,22 +668,22 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -689,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -700,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,35 +718,35 @@
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>19</v>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -752,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -763,12 +768,12 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>

--- a/data_excel/276.xlsx
+++ b/data_excel/276.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="36">
   <si>
     <t>魚缸</t>
   </si>
@@ -122,27 +122,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
+    <t>snv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,14 +168,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +177,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -201,6 +189,17 @@
       <left style="medium">
         <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
@@ -218,8 +217,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -525,7 +524,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" activeCellId="1" sqref="B14 B8"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -671,8 +670,8 @@
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -680,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -694,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -731,11 +730,11 @@
       <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>36</v>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
